--- a/2-Empirical-Evidence/raw_data/West_Virginia.xlsx
+++ b/2-Empirical-Evidence/raw_data/West_Virginia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN540010000000003</t>
@@ -1198,10 +1214,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>12.8</v>
@@ -1296,10 +1324,20 @@
       <c r="AF5" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>781.0</v>
@@ -1394,10 +1432,20 @@
       <c r="AF6" t="n" s="8">
         <v>588.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>381.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>320.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>347.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>5303.0</v>
@@ -1492,10 +1540,20 @@
       <c r="AF7" t="n" s="8">
         <v>6554.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>6759.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>6852.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>6816.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>6084.0</v>
@@ -1590,10 +1648,20 @@
       <c r="AF8" t="n" s="8">
         <v>7142.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>7140.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>7172.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>7163.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>6.5</v>
@@ -1688,10 +1756,20 @@
       <c r="AF9" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>1944.0</v>
@@ -1786,10 +1864,20 @@
       <c r="AF10" t="n" s="8">
         <v>3536.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>2168.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>1733.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>2012.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>27933.0</v>
@@ -1884,10 +1972,20 @@
       <c r="AF11" t="n" s="8">
         <v>54119.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>56791.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>57259.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>57095.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>29877.0</v>
@@ -1982,10 +2080,20 @@
       <c r="AF12" t="n" s="8">
         <v>57655.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>58959.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>58992.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>59107.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>9.6</v>
@@ -2080,10 +2188,20 @@
       <c r="AF13" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>820.0</v>
@@ -2178,10 +2296,20 @@
       <c r="AF14" t="n" s="8">
         <v>757.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>438.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>318.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>305.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>7749.0</v>
@@ -2276,10 +2404,20 @@
       <c r="AF15" t="n" s="8">
         <v>6550.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>6616.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>6846.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>6948.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>8569.0</v>
@@ -2374,10 +2512,20 @@
       <c r="AF16" t="n" s="8">
         <v>7307.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>7054.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>7164.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>7253.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>13.6</v>
@@ -2472,10 +2620,20 @@
       <c r="AF17" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>688.0</v>
@@ -2570,10 +2728,20 @@
       <c r="AF18" t="n" s="8">
         <v>525.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>342.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>305.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>256.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>4354.0</v>
@@ -2668,10 +2836,20 @@
       <c r="AF19" t="n" s="8">
         <v>4632.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>4684.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>4771.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>4800.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>5042.0</v>
@@ -2766,10 +2944,20 @@
       <c r="AF20" t="n" s="8">
         <v>5157.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>5026.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>5076.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>5056.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>6.4</v>
@@ -2864,10 +3052,20 @@
       <c r="AF21" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>776.0</v>
@@ -2962,10 +3160,20 @@
       <c r="AF22" t="n" s="8">
         <v>856.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>600.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>446.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>485.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>11308.0</v>
@@ -3060,10 +3268,20 @@
       <c r="AF23" t="n" s="8">
         <v>8830.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>9158.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>9233.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>9180.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>12084.0</v>
@@ -3158,10 +3376,20 @@
       <c r="AF24" t="n" s="8">
         <v>9686.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>9758.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>9679.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>9665.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.7</v>
@@ -3256,10 +3484,20 @@
       <c r="AF25" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>2908.0</v>
@@ -3354,10 +3592,20 @@
       <c r="AF26" t="n" s="8">
         <v>3241.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>1936.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>1460.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>1517.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>40489.0</v>
@@ -3452,10 +3700,20 @@
       <c r="AF27" t="n" s="8">
         <v>37874.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>38749.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>39463.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>39888.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>43397.0</v>
@@ -3550,10 +3808,20 @@
       <c r="AF28" t="n" s="8">
         <v>41115.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>40685.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>40923.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>41405.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>17.1</v>
@@ -3648,10 +3916,20 @@
       <c r="AF29" t="n" s="10">
         <v>15.9</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>525.0</v>
@@ -3746,10 +4024,20 @@
       <c r="AF30" t="n" s="8">
         <v>394.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>254.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>178.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>2547.0</v>
@@ -3844,10 +4132,20 @@
       <c r="AF31" t="n" s="8">
         <v>2081.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>2175.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>2261.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>2301.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>3072.0</v>
@@ -3942,10 +4240,20 @@
       <c r="AF32" t="n" s="8">
         <v>2475.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>2429.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>2461.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>2479.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>16.5</v>
@@ -4040,10 +4348,20 @@
       <c r="AF33" t="n" s="10">
         <v>12.4</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>491.0</v>
@@ -4138,10 +4456,20 @@
       <c r="AF34" t="n" s="8">
         <v>383.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>176.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>2480.0</v>
@@ -4236,10 +4564,20 @@
       <c r="AF35" t="n" s="8">
         <v>2700.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>2733.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>2826.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>2855.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>2971.0</v>
@@ -4334,10 +4672,20 @@
       <c r="AF36" t="n" s="8">
         <v>3083.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>2967.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>3001.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>3031.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>7.7</v>
@@ -4432,10 +4780,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>210.0</v>
@@ -4530,10 +4888,20 @@
       <c r="AF38" t="n" s="8">
         <v>234.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>161.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>2534.0</v>
@@ -4628,10 +4996,20 @@
       <c r="AF39" t="n" s="8">
         <v>3636.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>3680.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>3616.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>3592.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>2744.0</v>
@@ -4726,10 +5104,20 @@
       <c r="AF40" t="n" s="8">
         <v>3870.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>3841.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>3733.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>3710.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>11.4</v>
@@ -4824,10 +5212,20 @@
       <c r="AF41" t="n" s="10">
         <v>9.9</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>1943.0</v>
@@ -4922,10 +5320,20 @@
       <c r="AF42" t="n" s="8">
         <v>1571.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>988.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>729.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>702.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>15085.0</v>
@@ -5020,10 +5428,20 @@
       <c r="AF43" t="n" s="8">
         <v>14326.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>14573.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>14909.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>15223.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>17028.0</v>
@@ -5118,10 +5536,20 @@
       <c r="AF44" t="n" s="8">
         <v>15897.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>15561.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>15638.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>15925.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>11.1</v>
@@ -5216,10 +5644,20 @@
       <c r="AF45" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>315.0</v>
@@ -5314,10 +5752,20 @@
       <c r="AF46" t="n" s="8">
         <v>229.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>2512.0</v>
@@ -5412,10 +5860,20 @@
       <c r="AF47" t="n" s="8">
         <v>2049.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>2158.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>2162.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>2126.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>2827.0</v>
@@ -5510,10 +5968,20 @@
       <c r="AF48" t="n" s="8">
         <v>2278.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>2318.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>2283.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>2245.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>7.1</v>
@@ -5608,10 +6076,20 @@
       <c r="AF49" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>387.0</v>
@@ -5706,10 +6184,20 @@
       <c r="AF50" t="n" s="8">
         <v>376.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>270.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>228.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>5051.0</v>
@@ -5804,10 +6292,20 @@
       <c r="AF51" t="n" s="8">
         <v>5491.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>5661.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>5687.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>5841.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>5438.0</v>
@@ -5902,10 +6400,20 @@
       <c r="AF52" t="n" s="8">
         <v>5867.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>5931.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>5906.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>6069.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>12.2</v>
@@ -6000,10 +6508,20 @@
       <c r="AF53" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>1917.0</v>
@@ -6098,10 +6616,20 @@
       <c r="AF54" t="n" s="8">
         <v>1228.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>709.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>581.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>13769.0</v>
@@ -6196,10 +6724,20 @@
       <c r="AF55" t="n" s="8">
         <v>14193.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>14911.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>14719.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>14598.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>15686.0</v>
@@ -6294,10 +6832,20 @@
       <c r="AF56" t="n" s="8">
         <v>15421.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>15620.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>15300.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>15155.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>9.4</v>
@@ -6392,10 +6940,20 @@
       <c r="AF57" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>711.0</v>
@@ -6490,10 +7048,20 @@
       <c r="AF58" t="n" s="8">
         <v>575.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>379.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>294.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>317.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>6821.0</v>
@@ -6588,10 +7156,20 @@
       <c r="AF59" t="n" s="8">
         <v>9990.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>10478.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>10722.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>10833.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>7532.0</v>
@@ -6686,10 +7264,20 @@
       <c r="AF60" t="n" s="8">
         <v>10565.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>10857.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>11016.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>11150.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.8</v>
@@ -6784,10 +7372,20 @@
       <c r="AF61" t="n" s="10">
         <v>9.9</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>922.0</v>
@@ -6882,10 +7480,20 @@
       <c r="AF62" t="n" s="8">
         <v>1275.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>814.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>634.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>742.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>15019.0</v>
@@ -6980,10 +7588,20 @@
       <c r="AF63" t="n" s="8">
         <v>11621.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>12043.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>12137.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>12097.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>15941.0</v>
@@ -7078,10 +7696,20 @@
       <c r="AF64" t="n" s="8">
         <v>12896.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>12857.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>12771.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>12839.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.8</v>
@@ -7176,10 +7804,20 @@
       <c r="AF65" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>316.0</v>
@@ -7274,10 +7912,20 @@
       <c r="AF66" t="n" s="8">
         <v>407.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>281.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>229.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>251.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>5139.0</v>
@@ -7372,10 +8020,20 @@
       <c r="AF67" t="n" s="8">
         <v>5296.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>5312.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>5408.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>5532.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>5455.0</v>
@@ -7470,10 +8128,20 @@
       <c r="AF68" t="n" s="8">
         <v>5703.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>5593.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>5637.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>5783.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>8.8</v>
@@ -7568,10 +8236,20 @@
       <c r="AF69" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>2662.0</v>
@@ -7666,10 +8344,20 @@
       <c r="AF70" t="n" s="8">
         <v>2625.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>1590.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>1207.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1114.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>27516.0</v>
@@ -7764,10 +8452,20 @@
       <c r="AF71" t="n" s="8">
         <v>30819.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>31688.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>32447.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>33023.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>30178.0</v>
@@ -7862,10 +8560,20 @@
       <c r="AF72" t="n" s="8">
         <v>33444.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>33278.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>33654.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>34137.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>9.4</v>
@@ -7960,10 +8668,20 @@
       <c r="AF73" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>1079.0</v>
@@ -8058,10 +8776,20 @@
       <c r="AF74" t="n" s="8">
         <v>1061.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>682.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>503.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>503.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>10382.0</v>
@@ -8156,10 +8884,20 @@
       <c r="AF75" t="n" s="8">
         <v>11346.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>10991.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>11372.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>11589.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>11461.0</v>
@@ -8254,10 +8992,20 @@
       <c r="AF76" t="n" s="8">
         <v>12407.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>11673.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>11875.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>12092.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>5.7</v>
@@ -8352,10 +9100,20 @@
       <c r="AF77" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1090.0</v>
@@ -8450,10 +9208,20 @@
       <c r="AF78" t="n" s="8">
         <v>1735.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>952.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>759.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>836.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>17881.0</v>
@@ -8548,10 +9316,20 @@
       <c r="AF79" t="n" s="8">
         <v>27707.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>29051.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>29641.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>30301.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>18971.0</v>
@@ -8646,10 +9424,20 @@
       <c r="AF80" t="n" s="8">
         <v>29442.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>30003.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>30400.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>31137.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>6.4</v>
@@ -8744,10 +9532,20 @@
       <c r="AF81" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>6190.0</v>
@@ -8842,10 +9640,20 @@
       <c r="AF82" t="n" s="8">
         <v>7123.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>4236.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>2975.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>2955.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>91289.0</v>
@@ -8940,10 +9748,20 @@
       <c r="AF83" t="n" s="8">
         <v>74524.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>75276.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>77870.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>79034.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>97479.0</v>
@@ -9038,10 +9856,20 @@
       <c r="AF84" t="n" s="8">
         <v>81647.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>79512.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>80845.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>81989.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>11.2</v>
@@ -9136,10 +9964,20 @@
       <c r="AF85" t="n" s="10">
         <v>10.8</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>805.0</v>
@@ -9234,10 +10072,20 @@
       <c r="AF86" t="n" s="8">
         <v>665.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>426.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>295.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>286.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>6399.0</v>
@@ -9332,10 +10180,20 @@
       <c r="AF87" t="n" s="8">
         <v>5490.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>5653.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>5860.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>5935.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>7204.0</v>
@@ -9430,10 +10288,20 @@
       <c r="AF88" t="n" s="8">
         <v>6155.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>6079.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>6155.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>6221.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>14.4</v>
@@ -9528,10 +10396,20 @@
       <c r="AF89" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>1018.0</v>
@@ -9626,10 +10504,20 @@
       <c r="AF90" t="n" s="8">
         <v>704.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>463.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>341.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>6047.0</v>
@@ -9724,10 +10612,20 @@
       <c r="AF91" t="n" s="8">
         <v>6349.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>6496.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>6612.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>6684.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>7065.0</v>
@@ -9822,10 +10720,20 @@
       <c r="AF92" t="n" s="8">
         <v>7053.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>6959.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>6964.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>7025.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>11.5</v>
@@ -9920,10 +10828,20 @@
       <c r="AF93" t="n" s="10">
         <v>12.0</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>1678.0</v>
@@ -10018,10 +10936,20 @@
       <c r="AF94" t="n" s="8">
         <v>1316.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>726.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>477.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>471.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>12865.0</v>
@@ -10116,10 +11044,20 @@
       <c r="AF95" t="n" s="8">
         <v>9669.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>10237.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>10588.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>10873.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>14543.0</v>
@@ -10214,10 +11152,20 @@
       <c r="AF96" t="n" s="8">
         <v>10985.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>10963.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>11065.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>11344.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>13.4</v>
@@ -10312,10 +11260,20 @@
       <c r="AF97" t="n" s="10">
         <v>12.3</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1193.0</v>
@@ -10410,10 +11368,20 @@
       <c r="AF98" t="n" s="8">
         <v>540.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>351.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>257.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>260.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>7731.0</v>
@@ -10508,10 +11476,20 @@
       <c r="AF99" t="n" s="8">
         <v>3836.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>3814.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>3758.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>3788.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>8924.0</v>
@@ -10606,10 +11584,20 @@
       <c r="AF100" t="n" s="8">
         <v>4376.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>4165.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>4015.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>4048.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>9.1</v>
@@ -10704,10 +11692,20 @@
       <c r="AF101" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>2189.0</v>
@@ -10802,10 +11800,20 @@
       <c r="AF102" t="n" s="8">
         <v>2129.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>1318.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>1089.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>1010.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>21915.0</v>
@@ -10900,10 +11908,20 @@
       <c r="AF103" t="n" s="8">
         <v>22606.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>23369.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>23873.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>24027.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>24104.0</v>
@@ -10998,10 +12016,20 @@
       <c r="AF104" t="n" s="8">
         <v>24735.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>24687.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>24962.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>25037.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>7.6</v>
@@ -11096,10 +12124,20 @@
       <c r="AF105" t="n" s="10">
         <v>9.9</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>1232.0</v>
@@ -11194,10 +12232,20 @@
       <c r="AF106" t="n" s="8">
         <v>1308.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>830.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>649.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>654.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>14977.0</v>
@@ -11292,10 +12340,20 @@
       <c r="AF107" t="n" s="8">
         <v>11967.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>12297.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>12323.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>12497.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>16209.0</v>
@@ -11390,10 +12448,20 @@
       <c r="AF108" t="n" s="8">
         <v>13275.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>13127.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>12972.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>13151.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>9.2</v>
@@ -11488,10 +12556,20 @@
       <c r="AF109" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>929.0</v>
@@ -11586,10 +12664,20 @@
       <c r="AF110" t="n" s="8">
         <v>852.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>565.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>444.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>461.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>9194.0</v>
@@ -11684,10 +12772,20 @@
       <c r="AF111" t="n" s="8">
         <v>9316.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>9679.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>9641.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>9665.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>10123.0</v>
@@ -11782,10 +12880,20 @@
       <c r="AF112" t="n" s="8">
         <v>10168.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>10244.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>10085.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>10126.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>8.3</v>
@@ -11880,10 +12988,20 @@
       <c r="AF113" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>2388.0</v>
@@ -11978,10 +13096,20 @@
       <c r="AF114" t="n" s="8">
         <v>1897.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>1243.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>910.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>909.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>26418.0</v>
@@ -12076,10 +13204,20 @@
       <c r="AF115" t="n" s="8">
         <v>18693.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>19106.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>19424.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>19730.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>28806.0</v>
@@ -12174,10 +13312,20 @@
       <c r="AF116" t="n" s="8">
         <v>20590.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>20349.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>20334.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>20639.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>6.9</v>
@@ -12272,10 +13420,20 @@
       <c r="AF117" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>816.0</v>
@@ -12370,10 +13528,20 @@
       <c r="AF118" t="n" s="8">
         <v>897.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>576.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>468.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>499.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>11068.0</v>
@@ -12468,10 +13636,20 @@
       <c r="AF119" t="n" s="8">
         <v>11083.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>11461.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>11858.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>11692.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>11884.0</v>
@@ -12566,10 +13744,20 @@
       <c r="AF120" t="n" s="8">
         <v>11980.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>12037.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>12326.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>12191.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>11.0</v>
@@ -12664,10 +13852,20 @@
       <c r="AF121" t="n" s="10">
         <v>14.2</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>1096.0</v>
@@ -12762,10 +13960,20 @@
       <c r="AF122" t="n" s="8">
         <v>947.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>552.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>354.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>343.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>8841.0</v>
@@ -12860,10 +14068,20 @@
       <c r="AF123" t="n" s="8">
         <v>5730.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>5620.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>6075.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>6119.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>9937.0</v>
@@ -12958,10 +14176,20 @@
       <c r="AF124" t="n" s="8">
         <v>6677.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>6172.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>6429.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>6462.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>6.6</v>
@@ -13056,10 +14284,20 @@
       <c r="AF125" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>2453.0</v>
@@ -13154,10 +14392,20 @@
       <c r="AF126" t="n" s="8">
         <v>3376.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>2228.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>1880.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>1726.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>34593.0</v>
@@ -13252,10 +14500,20 @@
       <c r="AF127" t="n" s="8">
         <v>50422.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>52317.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>53152.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>53863.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>37046.0</v>
@@ -13350,10 +14608,20 @@
       <c r="AF128" t="n" s="8">
         <v>53798.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>54545.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>55032.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>55589.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>9.5</v>
@@ -13448,10 +14716,20 @@
       <c r="AF129" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>490.0</v>
@@ -13546,10 +14824,20 @@
       <c r="AF130" t="n" s="8">
         <v>418.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>228.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>208.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>179.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>4673.0</v>
@@ -13644,10 +14932,20 @@
       <c r="AF131" t="n" s="8">
         <v>5531.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>5755.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>5878.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>5781.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>5163.0</v>
@@ -13742,10 +15040,20 @@
       <c r="AF132" t="n" s="8">
         <v>5949.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>5983.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>6086.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>5960.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>4.8</v>
@@ -13840,10 +15148,20 @@
       <c r="AF133" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>278.0</v>
@@ -13938,10 +15256,20 @@
       <c r="AF134" t="n" s="8">
         <v>491.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>301.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>239.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>267.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>5480.0</v>
@@ -14036,10 +15364,20 @@
       <c r="AF135" t="n" s="8">
         <v>7686.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>8038.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>8202.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>8246.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>5758.0</v>
@@ -14134,10 +15472,20 @@
       <c r="AF136" t="n" s="8">
         <v>8177.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>8339.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>8441.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>8513.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>13.2</v>
@@ -14232,10 +15580,20 @@
       <c r="AF137" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>1376.0</v>
@@ -14330,10 +15688,20 @@
       <c r="AF138" t="n" s="8">
         <v>957.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>541.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>413.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>418.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>9033.0</v>
@@ -14428,10 +15796,20 @@
       <c r="AF139" t="n" s="8">
         <v>8257.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>8379.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>8501.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>8587.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>10409.0</v>
@@ -14526,10 +15904,20 @@
       <c r="AF140" t="n" s="8">
         <v>9214.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>8920.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>8914.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>9005.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>5.4</v>
@@ -14624,10 +16012,20 @@
       <c r="AF141" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>1331.0</v>
@@ -14722,10 +16120,20 @@
       <c r="AF142" t="n" s="8">
         <v>1672.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>1045.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>787.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>763.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>23136.0</v>
@@ -14820,10 +16228,20 @@
       <c r="AF143" t="n" s="8">
         <v>18426.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>18931.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>18970.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>19246.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>24467.0</v>
@@ -14918,10 +16336,20 @@
       <c r="AF144" t="n" s="8">
         <v>20098.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>19976.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>19757.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>20009.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>5.9</v>
@@ -15016,10 +16444,20 @@
       <c r="AF145" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>217.0</v>
@@ -15114,10 +16552,20 @@
       <c r="AF146" t="n" s="8">
         <v>176.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>3481.0</v>
@@ -15212,10 +16660,20 @@
       <c r="AF147" t="n" s="8">
         <v>3431.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>3580.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>3643.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>3616.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>3698.0</v>
@@ -15310,10 +16768,20 @@
       <c r="AF148" t="n" s="8">
         <v>3607.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>3694.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>3740.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>3714.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>10.3</v>
@@ -15408,10 +16876,20 @@
       <c r="AF149" t="n" s="10">
         <v>11.1</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>336.0</v>
@@ -15506,10 +16984,20 @@
       <c r="AF150" t="n" s="8">
         <v>294.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>191.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>142.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>2922.0</v>
@@ -15604,10 +17092,20 @@
       <c r="AF151" t="n" s="8">
         <v>2364.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>2463.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>2518.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>2520.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>3258.0</v>
@@ -15702,10 +17200,20 @@
       <c r="AF152" t="n" s="8">
         <v>2658.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>2654.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>2660.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>2664.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>13.5</v>
@@ -15800,10 +17308,20 @@
       <c r="AF153" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>572.0</v>
@@ -15898,10 +17416,20 @@
       <c r="AF154" t="n" s="8">
         <v>344.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>196.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>158.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>165.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>3668.0</v>
@@ -15996,10 +17524,20 @@
       <c r="AF155" t="n" s="8">
         <v>3426.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>3641.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>3716.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>3500.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>4240.0</v>
@@ -16094,10 +17632,20 @@
       <c r="AF156" t="n" s="8">
         <v>3770.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>3837.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>3874.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>3665.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>10.2</v>
@@ -16192,10 +17740,20 @@
       <c r="AF157" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>1256.0</v>
@@ -16290,10 +17848,20 @@
       <c r="AF158" t="n" s="8">
         <v>1099.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>716.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>623.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>600.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>11030.0</v>
@@ -16388,10 +17956,20 @@
       <c r="AF159" t="n" s="8">
         <v>14019.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>14582.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>14817.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>14874.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>12286.0</v>
@@ -16486,10 +18064,20 @@
       <c r="AF160" t="n" s="8">
         <v>15118.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>15298.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>15440.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>15474.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>7.2</v>
@@ -16584,10 +18172,20 @@
       <c r="AF161" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>1450.0</v>
@@ -16682,10 +18280,20 @@
       <c r="AF162" t="n" s="8">
         <v>1949.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>1142.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>885.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>883.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>18812.0</v>
@@ -16780,10 +18388,20 @@
       <c r="AF163" t="n" s="8">
         <v>24688.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>25262.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>25745.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>26010.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>20262.0</v>
@@ -16878,10 +18496,20 @@
       <c r="AF164" t="n" s="8">
         <v>26637.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>26404.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>26630.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>26893.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>9.0</v>
@@ -16976,10 +18604,20 @@
       <c r="AF165" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>2651.0</v>
@@ -17074,10 +18712,20 @@
       <c r="AF166" t="n" s="8">
         <v>2640.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>1575.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>1083.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>1105.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>26810.0</v>
@@ -17172,10 +18820,20 @@
       <c r="AF167" t="n" s="8">
         <v>27258.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>27711.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>28363.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>29007.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>29461.0</v>
@@ -17270,10 +18928,20 @@
       <c r="AF168" t="n" s="8">
         <v>29898.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>29286.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>29446.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>30112.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>14.7</v>
@@ -17368,10 +19036,20 @@
       <c r="AF169" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>1812.0</v>
@@ -17466,10 +19144,20 @@
       <c r="AF170" t="n" s="8">
         <v>1098.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>671.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>546.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>559.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>10548.0</v>
@@ -17564,10 +19252,20 @@
       <c r="AF171" t="n" s="8">
         <v>10996.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>11121.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>11133.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>11192.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>12360.0</v>
@@ -17662,10 +19360,20 @@
       <c r="AF172" t="n" s="8">
         <v>12094.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>11792.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>11679.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>11751.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>14.4</v>
@@ -17760,10 +19468,20 @@
       <c r="AF173" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>647.0</v>
@@ -17858,10 +19576,20 @@
       <c r="AF174" t="n" s="8">
         <v>357.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>241.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>171.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>3857.0</v>
@@ -17956,10 +19684,20 @@
       <c r="AF175" t="n" s="8">
         <v>3962.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>4028.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>4103.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>3832.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>4504.0</v>
@@ -18054,10 +19792,20 @@
       <c r="AF176" t="n" s="8">
         <v>4319.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>4269.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>4278.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>4003.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>15.6</v>
@@ -18152,10 +19900,20 @@
       <c r="AF177" t="n" s="10">
         <v>12.2</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>934.0</v>
@@ -18250,10 +20008,20 @@
       <c r="AF178" t="n" s="8">
         <v>617.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>420.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>313.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>5051.0</v>
@@ -18348,10 +20116,20 @@
       <c r="AF179" t="n" s="8">
         <v>4432.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>4494.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>4713.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>4679.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>5985.0</v>
@@ -18446,10 +20224,20 @@
       <c r="AF180" t="n" s="8">
         <v>5049.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>4914.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>5026.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>4979.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>9.9</v>
@@ -18544,10 +20332,20 @@
       <c r="AF181" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>466.0</v>
@@ -18642,10 +20440,20 @@
       <c r="AF182" t="n" s="8">
         <v>332.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>212.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>4254.0</v>
@@ -18740,10 +20548,20 @@
       <c r="AF183" t="n" s="8">
         <v>3973.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>4217.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>4412.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>4266.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>4720.0</v>
@@ -18838,10 +20656,20 @@
       <c r="AF184" t="n" s="8">
         <v>4305.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>4429.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>4582.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>4438.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>10.2</v>
@@ -18936,10 +20764,20 @@
       <c r="AF185" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>629.0</v>
@@ -19034,10 +20872,20 @@
       <c r="AF186" t="n" s="8">
         <v>559.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>366.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>301.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>293.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>5564.0</v>
@@ -19132,10 +20980,20 @@
       <c r="AF187" t="n" s="8">
         <v>7106.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>7363.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>7536.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>7616.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>6193.0</v>
@@ -19230,10 +21088,20 @@
       <c r="AF188" t="n" s="8">
         <v>7665.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>7729.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>7837.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>7909.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>12.4</v>
@@ -19328,10 +21196,20 @@
       <c r="AF189" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>439.0</v>
@@ -19426,10 +21304,20 @@
       <c r="AF190" t="n" s="8">
         <v>271.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>183.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>3109.0</v>
@@ -19524,10 +21412,20 @@
       <c r="AF191" t="n" s="8">
         <v>3010.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>3194.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>3409.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>3453.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>3548.0</v>
@@ -19622,10 +21520,20 @@
       <c r="AF192" t="n" s="8">
         <v>3281.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>3377.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>3542.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>3576.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>10.1</v>
@@ -19720,10 +21628,20 @@
       <c r="AF193" t="n" s="10">
         <v>10.6</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>425.0</v>
@@ -19818,10 +21736,20 @@
       <c r="AF194" t="n" s="8">
         <v>316.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>236.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>173.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>3775.0</v>
@@ -19916,10 +21844,20 @@
       <c r="AF195" t="n" s="8">
         <v>2674.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>2670.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>2788.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>2742.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>4200.0</v>
@@ -20014,10 +21952,20 @@
       <c r="AF196" t="n" s="8">
         <v>2990.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>2906.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>2960.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>2915.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>10.9</v>
@@ -20112,10 +22060,20 @@
       <c r="AF197" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>1085.0</v>
@@ -20210,10 +22168,20 @@
       <c r="AF198" t="n" s="8">
         <v>896.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>598.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>461.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>454.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>8832.0</v>
@@ -20308,10 +22276,20 @@
       <c r="AF199" t="n" s="8">
         <v>8597.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>8967.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>9201.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>9372.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>9917.0</v>
@@ -20406,10 +22384,20 @@
       <c r="AF200" t="n" s="8">
         <v>9493.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>9565.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>9662.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>9826.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>8.5</v>
@@ -20504,10 +22492,20 @@
       <c r="AF201" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>1421.0</v>
@@ -20602,10 +22600,20 @@
       <c r="AF202" t="n" s="8">
         <v>1288.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>807.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>614.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>641.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>15253.0</v>
@@ -20700,10 +22708,20 @@
       <c r="AF203" t="n" s="8">
         <v>14165.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>14491.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>14762.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>14927.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>16674.0</v>
@@ -20798,10 +22816,20 @@
       <c r="AF204" t="n" s="8">
         <v>15453.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>15298.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>15376.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>15568.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>19.4</v>
@@ -20896,10 +22924,20 @@
       <c r="AF205" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>669.0</v>
@@ -20994,10 +23032,20 @@
       <c r="AF206" t="n" s="8">
         <v>302.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>198.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>142.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>155.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>2778.0</v>
@@ -21092,10 +23140,20 @@
       <c r="AF207" t="n" s="8">
         <v>2939.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>2983.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>3070.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>2878.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>3447.0</v>
@@ -21190,10 +23248,20 @@
       <c r="AF208" t="n" s="8">
         <v>3241.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>3181.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>3212.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>3033.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>11.2</v>
@@ -21288,10 +23356,20 @@
       <c r="AF209" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>880.0</v>
@@ -21386,10 +23464,20 @@
       <c r="AF210" t="n" s="8">
         <v>642.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>446.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>357.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>379.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>6968.0</v>
@@ -21484,10 +23572,20 @@
       <c r="AF211" t="n" s="8">
         <v>5808.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>6037.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>6036.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>6083.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>7848.0</v>
@@ -21582,10 +23680,20 @@
       <c r="AF212" t="n" s="8">
         <v>6450.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>6483.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>6393.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>6462.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>17.8</v>
@@ -21680,10 +23788,20 @@
       <c r="AF213" t="n" s="10">
         <v>10.7</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>423.0</v>
@@ -21778,10 +23896,20 @@
       <c r="AF214" t="n" s="8">
         <v>237.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>171.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>1955.0</v>
@@ -21876,10 +24004,20 @@
       <c r="AF215" t="n" s="8">
         <v>1979.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>2050.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>2096.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>2112.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>2378.0</v>
@@ -21974,10 +24112,20 @@
       <c r="AF216" t="n" s="8">
         <v>2216.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>2221.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>2227.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>2242.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>7.1</v>
@@ -22072,10 +24220,20 @@
       <c r="AF217" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>3026.0</v>
@@ -22170,10 +24328,20 @@
       <c r="AF218" t="n" s="8">
         <v>3123.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>1928.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>1481.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>1497.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>39326.0</v>
@@ -22268,10 +24436,20 @@
       <c r="AF219" t="n" s="8">
         <v>32709.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>33810.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>34500.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>34984.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>42352.0</v>
@@ -22366,10 +24544,20 @@
       <c r="AF220" t="n" s="8">
         <v>35832.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>35738.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>35981.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>36481.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>12.3</v>
@@ -22464,10 +24652,20 @@
       <c r="AF221" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>1067.0</v>
@@ -22562,10 +24760,20 @@
       <c r="AF222" t="n" s="8">
         <v>667.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>413.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>307.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>310.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>7600.0</v>
@@ -22660,10 +24868,20 @@
       <c r="AF223" t="n" s="8">
         <v>6112.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>6521.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>6794.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>6923.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>8667.0</v>
@@ -22758,6 +24976,16 @@
       <c r="AF224" t="n" s="8">
         <v>6779.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>6934.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>7101.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>7233.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -22768,7 +24996,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (10:55:18 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:45:38 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
